--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value479.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value479.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9787054746285125</v>
+        <v>-1</v>
       </c>
       <c r="B1">
-        <v>1.651582856524536</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>4.108083871023509</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.837828961701442</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.070576574781078</v>
+        <v>1.008498311042786</v>
       </c>
     </row>
   </sheetData>
